--- a/data/guests_and_checkins_rdd_cs_2024_31.xlsx
+++ b/data/guests_and_checkins_rdd_cs_2024_31.xlsx
@@ -9218,7 +9218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9248,6 +9248,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9292,13 +9298,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -9320,11 +9330,11 @@
   </sheetPr>
   <dimension ref="A1:N734"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A223" activeCellId="0" sqref="A223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A476" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B498" activeCellId="0" sqref="B498"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="20.71"/>
   </cols>
@@ -25111,15 +25121,15 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="n">
         <v>1901229</v>
       </c>
-      <c r="B497" s="0" t="s">
+      <c r="B497" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C497" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="D497" s="0" t="s">
         <v>2171</v>
